--- a/data/incoming/TandI_1/Sediment/ammonium and phosphate data (November 2020).xlsx
+++ b/data/incoming/TandI_1/Sediment/ammonium and phosphate data (November 2020).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangl\Desktop\UniSA\Coorong\2nd field trip (10 of November)\Data analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\data\incoming\TandI_1\Sediment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA3412-290A-44BC-86F9-CC851F5C8A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156145B3-B632-4757-8204-C20A34DC461C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ammonium" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>µmol/L</t>
   </si>
   <si>
-    <t>Noonameena </t>
-  </si>
-  <si>
     <t>November 2020 </t>
   </si>
   <si>
@@ -101,9 +98,6 @@
   </si>
   <si>
     <t>Sandy, burrowing organisms </t>
-  </si>
-  <si>
-    <t>Parnka Point </t>
   </si>
   <si>
     <t>Shallow, 10-40 cm </t>
@@ -133,9 +127,6 @@
       </rPr>
       <t>,1-2 cm hard shell grit layer in the middle, muddy at the bottom  </t>
     </r>
-  </si>
-  <si>
-    <t>Policeman’s Point </t>
   </si>
   <si>
     <t>Shallow, 40-50 cm </t>
@@ -231,6 +222,15 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Noonameena</t>
+  </si>
+  <si>
+    <t>Parnka Point</t>
+  </si>
+  <si>
+    <t>Policemans Point</t>
   </si>
 </sst>
 </file>
@@ -773,9 +773,9 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -796,7 +796,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
@@ -812,7 +812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>-2.75</v>
       </c>
@@ -945,7 +945,7 @@
         <v>2.3190057648485847</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>-2.25</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>4.9397937800205431</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>-1.75</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>2.1965273039610862</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>-1.25</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>3.6777020664300135</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>-0.75</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>3.9786982611501953</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>-0.25</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>2.2095204708633767</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.25</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1.3539323059979123</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.75</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>2.9503192063268608</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.25</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>10.998190150936487</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1.75</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>18.07701148912551</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2.5</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>42.517391622853509</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.5</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>32.644257053047284</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4.5</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>50.547224597594983</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5.5</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>49.984250320350732</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6.5</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>54.652098842714196</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7.5</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>58.005894313303457</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8.5</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>53.010658354250381</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9.5</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>45.989746209876365</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10.5</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>47.972229877751033</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>11.5</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>85.363887936440122</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>-2.75</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>26.111378699747753</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>-2.25</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>28.157490646766806</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>-1.75</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>25.444315326722485</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>-1.25</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>28.049314371073944</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>-0.75</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>30.274028683617203</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>-0.25</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>24.730753855412722</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.25</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>36.303546590056449</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.75</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>40.107834142322346</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.25</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>42.750428968697832</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.75</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>52.330191488283837</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2.5</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>40.442034664381964</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3.5</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>42.408149704792535</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>4.5</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>103.30540470591275</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>5.5</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>78.21843252226013</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>6.5</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>92.750358263090163</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7.5</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>87.105263289558422</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8.5</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>99.190814601282966</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9.5</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>152.31133821327421</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>10.5</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>305.6375393555407</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>11.5</v>
       </c>
@@ -3910,13 +3910,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D826660F-50DE-4C6F-8D6B-2075A562B643}">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>-2.75</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>11.933017366601161</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>-2.25</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>11.861818390153665</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>-1.75</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>9.5265460058824463</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>-1.25</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>9.2414403347735661</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>-0.75</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>9.8179429001813237</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>-0.25</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>9.1332391689597792</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.25</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>10.416503864064397</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.75</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>11.53413108276014</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.25</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>9.1836339624412435</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1.75</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>8.8279793249154128</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2.5</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>5.3886398008634968</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.5</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>5.1304028483414745</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4.5</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>4.436500162859188</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5.5</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>5.060044626701262</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6.5</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>3.2649385082699651</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7.5</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>3.8332757202185697</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8.5</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>7.333114156934383</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9.5</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>10.534686283835047</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10.5</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>14.610972899779583</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>11.5</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>14.474338171522144</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>-2.75</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1.5263329748349759</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>-2.25</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>3.8956619151213947</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>-1.75</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>4.7207359448691584</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>-1.25</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>4.5747017465877713</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>-0.75</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>7.0193946872244108</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>-0.25</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>7.3501331430696188</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.25</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>4.6483689996226571</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.75</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>5.6055339291633377</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1.25</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>2.881662183708404</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1.75</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>5.1970130340676333</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2.5</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>2.6901383460183164</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3.5</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2.9992142289221446</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>4.5</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>1.9139475253118809</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>5.5</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>3.1116146203407005</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>6.5</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>4.8865573241265752</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7.5</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>11.224231337215445</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8.5</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>12.230429807521444</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9.5</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>13.705530284550004</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>10.5</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>22.831956140509831</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>11.5</v>
       </c>
@@ -7037,47 +7037,47 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="9">
         <v>-35.758099999999999</v>
@@ -7086,18 +7086,18 @@
         <v>139.2621833</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="9">
         <v>-35.902659999999997</v>
@@ -7106,18 +7106,18 @@
         <v>139.39676</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="15">
         <v>-36.057830000000003</v>
